--- a/doc/CS1/Task10/scrum_v02.xlsx
+++ b/doc/CS1/Task10/scrum_v02.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca_000\OneDrive\DITTP2\BFH\Semester 3 HS\VGJ1 - BTX8081 - Software Engineering and Design\ch.bfh.btx8081.w2016.blue\doc\CS1\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
+    <sheet name="excel_data" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -43,39 +49,9 @@
     <t>low</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>450h</t>
-  </si>
-  <si>
-    <t>40h</t>
-  </si>
-  <si>
-    <t>180h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -91,60 +67,18 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
     <t>UI, Controller</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
     <t>Effort Plan Updated</t>
   </si>
   <si>
-    <t>0h</t>
-  </si>
-  <si>
-    <t>50h</t>
-  </si>
-  <si>
-    <t>350h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -160,14 +94,182 @@
     <t>Remaining Ressources</t>
   </si>
   <si>
-    <t>Time of Record</t>
+    <t>Fabian Kammermann</t>
+  </si>
+  <si>
+    <t>Patrick Jolo</t>
+  </si>
+  <si>
+    <t>Remy Lam</t>
+  </si>
+  <si>
+    <t>Niveadha Kanagarasa</t>
+  </si>
+  <si>
+    <t>Burcu Sevinc</t>
+  </si>
+  <si>
+    <t>Claudia Telesca</t>
+  </si>
+  <si>
+    <t>Pascal Dittli</t>
+  </si>
+  <si>
+    <t>sevib1</t>
+  </si>
+  <si>
+    <t>telec1</t>
+  </si>
+  <si>
+    <t>kammf1</t>
+  </si>
+  <si>
+    <t>jolop1</t>
+  </si>
+  <si>
+    <t>varan2</t>
+  </si>
+  <si>
+    <t>dittp2</t>
+  </si>
+  <si>
+    <t>lamlr1</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>waiting on someone else</t>
+  </si>
+  <si>
+    <t>deferred</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>User gets past labor results from DB</t>
+  </si>
+  <si>
+    <t>User gets standing data of patients</t>
+  </si>
+  <si>
+    <t>As a user, I want to log in with my username and password</t>
+  </si>
+  <si>
+    <t>As a user, I want to log out immediately, no matter where I am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to see all patient appointments </t>
+  </si>
+  <si>
+    <t>As a user, I want to see the time on the schedule view</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>clock for schedule view</t>
+  </si>
+  <si>
+    <t>As a user, I want to get all necessary information about a patient</t>
+  </si>
+  <si>
+    <t>display information about the patient</t>
+  </si>
+  <si>
+    <t>synchronize</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>display information about diagnosis</t>
+  </si>
+  <si>
+    <t>As a user, I want  to see if I've already prepared a set of medicaments</t>
+  </si>
+  <si>
+    <t>As a user, I want to have an option to update data</t>
+  </si>
+  <si>
+    <t>As a user, I want to see all information about patients diagnosis</t>
+  </si>
+  <si>
+    <t>As a user, I want to see past labor results</t>
+  </si>
+  <si>
+    <t>As a user, I want to get important information about the patients identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>status medication preparation</t>
+  </si>
+  <si>
+    <t>status medications</t>
+  </si>
+  <si>
+    <t>As a user, I want to inform co-workers if a patient behaves aggressively</t>
+  </si>
+  <si>
+    <t>As a user, I want to check medication</t>
+  </si>
+  <si>
+    <t>testdatabase, based on the uml class diagramm, filled with exampledata</t>
+  </si>
+  <si>
+    <t>Implementing Associations</t>
+  </si>
+  <si>
+    <t>Schedule UI</t>
+  </si>
+  <si>
+    <t>Java Classes skeleton</t>
+  </si>
+  <si>
+    <t>Associations</t>
+  </si>
+  <si>
+    <t>Uml to Java classes</t>
+  </si>
+  <si>
+    <t>Getter methods</t>
+  </si>
+  <si>
+    <t>JPA Classes, Database</t>
+  </si>
+  <si>
+    <t>Controller, JPA Classes</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Schedule view</t>
+  </si>
+  <si>
+    <t>JPA - getting methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +281,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -234,6 +351,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,6 +362,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -291,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,9 +446,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,57 +691,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A8">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="59.1796875" customWidth="1"/>
+    <col min="3" max="3" width="75.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -594,107 +809,294 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>excel_data!$B$3:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H15:H16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>excel_data!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D19:D25 D2:D13 D15:D16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>excel_data!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -702,32 +1104,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -736,261 +1138,331 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
       <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
       <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>ProjectTeam!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F13 G2:G25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>excel_data!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>excel_data!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>42262</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>42263</v>
+      <c r="B3" s="6" t="e">
+        <f>Wee</f>
+        <v>#NAME?</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>180</v>
-      </c>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>